--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H2">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I2">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J2">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.115710333333334</v>
+        <v>8.188497</v>
       </c>
       <c r="N2">
-        <v>27.347131</v>
+        <v>24.565491</v>
       </c>
       <c r="O2">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="P2">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="Q2">
-        <v>242.2386135475569</v>
+        <v>169.725622203531</v>
       </c>
       <c r="R2">
-        <v>2180.147521928012</v>
+        <v>1527.530599831779</v>
       </c>
       <c r="S2">
-        <v>0.00259886021881932</v>
+        <v>0.002494328872133199</v>
       </c>
       <c r="T2">
-        <v>0.00259886021881932</v>
+        <v>0.0024943288721332</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H3">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I3">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J3">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.012288</v>
       </c>
       <c r="O3">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="P3">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="Q3">
-        <v>239.2726020827307</v>
+        <v>186.630806115008</v>
       </c>
       <c r="R3">
-        <v>2153.453418744576</v>
+        <v>1679.677255035072</v>
       </c>
       <c r="S3">
-        <v>0.002567039324984054</v>
+        <v>0.002742771551392038</v>
       </c>
       <c r="T3">
-        <v>0.002567039324984054</v>
+        <v>0.002742771551392039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H4">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I4">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J4">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.76332533333333</v>
+        <v>20.052841</v>
       </c>
       <c r="N4">
-        <v>95.289976</v>
+        <v>60.158523</v>
       </c>
       <c r="O4">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="P4">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="Q4">
-        <v>844.0706877522168</v>
+        <v>415.641712474643</v>
       </c>
       <c r="R4">
-        <v>7596.636189769951</v>
+        <v>3740.775412271787</v>
       </c>
       <c r="S4">
-        <v>0.009055623709801505</v>
+        <v>0.006108371325604243</v>
       </c>
       <c r="T4">
-        <v>0.009055623709801506</v>
+        <v>0.006108371325604245</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H5">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I5">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J5">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.382313</v>
+        <v>2.015750333333334</v>
       </c>
       <c r="N5">
-        <v>7.146939</v>
+        <v>6.047251</v>
       </c>
       <c r="O5">
-        <v>0.0289137114881257</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="P5">
-        <v>0.02891371148812569</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="Q5">
-        <v>63.30699167195866</v>
+        <v>41.78110824635768</v>
       </c>
       <c r="R5">
-        <v>569.762925047628</v>
+        <v>376.029974217219</v>
       </c>
       <c r="S5">
-        <v>0.0006791899103941957</v>
+        <v>0.0006140252912647405</v>
       </c>
       <c r="T5">
-        <v>0.0006791899103941957</v>
+        <v>0.0006140252912647405</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H6">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I6">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J6">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.12843966666667</v>
+        <v>21.39293066666667</v>
       </c>
       <c r="N6">
-        <v>90.38531900000001</v>
+        <v>64.178792</v>
       </c>
       <c r="O6">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195203</v>
       </c>
       <c r="P6">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195202</v>
       </c>
       <c r="Q6">
-        <v>800.6256436777098</v>
+        <v>443.4181838446054</v>
       </c>
       <c r="R6">
-        <v>7205.630793099388</v>
+        <v>3990.763654601448</v>
       </c>
       <c r="S6">
-        <v>0.008589522970961525</v>
+        <v>0.006516581079703686</v>
       </c>
       <c r="T6">
-        <v>0.008589522970961527</v>
+        <v>0.006516581079703687</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3293.988647</v>
       </c>
       <c r="I7">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J7">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.115710333333334</v>
+        <v>8.188497</v>
       </c>
       <c r="N7">
-        <v>27.347131</v>
+        <v>24.565491</v>
       </c>
       <c r="O7">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="P7">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="Q7">
-        <v>10009.01544911353</v>
+        <v>8990.938717997853</v>
       </c>
       <c r="R7">
-        <v>90081.13904202176</v>
+        <v>80918.44846198069</v>
       </c>
       <c r="S7">
-        <v>0.1073818566714278</v>
+        <v>0.1321330141007769</v>
       </c>
       <c r="T7">
-        <v>0.1073818566714278</v>
+        <v>0.1321330141007769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3293.988647</v>
       </c>
       <c r="I8">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J8">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>27.012288</v>
       </c>
       <c r="O8">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="P8">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="Q8">
         <v>9886.463333499372</v>
@@ -948,10 +948,10 @@
         <v>88978.17000149435</v>
       </c>
       <c r="S8">
-        <v>0.1060670546531309</v>
+        <v>0.1452938608553864</v>
       </c>
       <c r="T8">
-        <v>0.1060670546531309</v>
+        <v>0.1452938608553864</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3293.988647</v>
       </c>
       <c r="I9">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J9">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.76332533333333</v>
+        <v>20.052841</v>
       </c>
       <c r="N9">
-        <v>95.289976</v>
+        <v>60.158523</v>
       </c>
       <c r="O9">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="P9">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="Q9">
-        <v>34876.01101298916</v>
+        <v>22017.94353136538</v>
       </c>
       <c r="R9">
-        <v>313884.0991169024</v>
+        <v>198161.4917822884</v>
       </c>
       <c r="S9">
-        <v>0.3741677525534871</v>
+        <v>0.3235810335661889</v>
       </c>
       <c r="T9">
-        <v>0.3741677525534871</v>
+        <v>0.3235810335661889</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3293.988647</v>
       </c>
       <c r="I10">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J10">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.382313</v>
+        <v>2.015750333333334</v>
       </c>
       <c r="N10">
-        <v>7.146939</v>
+        <v>6.047251</v>
       </c>
       <c r="O10">
-        <v>0.0289137114881257</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="P10">
-        <v>0.02891371148812569</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="Q10">
-        <v>2615.770658533504</v>
+        <v>2213.286237728822</v>
       </c>
       <c r="R10">
-        <v>23541.93592680153</v>
+        <v>19919.5761395594</v>
       </c>
       <c r="S10">
-        <v>0.02806333064106204</v>
+        <v>0.03252699087732207</v>
       </c>
       <c r="T10">
-        <v>0.02806333064106204</v>
+        <v>0.03252699087732207</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3293.988647</v>
       </c>
       <c r="I11">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J11">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.12843966666667</v>
+        <v>21.39293066666667</v>
       </c>
       <c r="N11">
-        <v>90.38531900000001</v>
+        <v>64.178792</v>
       </c>
       <c r="O11">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195203</v>
       </c>
       <c r="P11">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195202</v>
       </c>
       <c r="Q11">
-        <v>33080.91273794149</v>
+        <v>23489.35691401938</v>
       </c>
       <c r="R11">
-        <v>297728.2146414734</v>
+        <v>211404.2122261744</v>
       </c>
       <c r="S11">
-        <v>0.3549090166006548</v>
+        <v>0.3452052811933142</v>
       </c>
       <c r="T11">
-        <v>0.3549090166006548</v>
+        <v>0.3452052811933142</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H12">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I12">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J12">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.115710333333334</v>
+        <v>8.188497</v>
       </c>
       <c r="N12">
-        <v>27.347131</v>
+        <v>24.565491</v>
       </c>
       <c r="O12">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="P12">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="Q12">
-        <v>1.771641341853444</v>
+        <v>8.178700828089001</v>
       </c>
       <c r="R12">
-        <v>15.944772076681</v>
+        <v>73.60830745280101</v>
       </c>
       <c r="S12">
-        <v>1.900707793002076E-05</v>
+        <v>0.0001201961692476723</v>
       </c>
       <c r="T12">
-        <v>1.900707793002076E-05</v>
+        <v>0.0001201961692476723</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H13">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I13">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J13">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.012288</v>
       </c>
       <c r="O13">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="P13">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="Q13">
-        <v>1.749949058965333</v>
+        <v>8.993324099818668</v>
       </c>
       <c r="R13">
-        <v>15.749541530688</v>
+        <v>80.93991689836801</v>
       </c>
       <c r="S13">
-        <v>1.877435198171847E-05</v>
+        <v>0.0001321680702500458</v>
       </c>
       <c r="T13">
-        <v>1.877435198171847E-05</v>
+        <v>0.0001321680702500458</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H14">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I14">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J14">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.76332533333333</v>
+        <v>20.052841</v>
       </c>
       <c r="N14">
-        <v>95.289976</v>
+        <v>60.158523</v>
       </c>
       <c r="O14">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="P14">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="Q14">
-        <v>6.173212866308443</v>
+        <v>20.02885111788367</v>
       </c>
       <c r="R14">
-        <v>55.558915796776</v>
+        <v>180.259660060953</v>
       </c>
       <c r="S14">
-        <v>6.622939714523646E-05</v>
+        <v>0.0002943488494570691</v>
       </c>
       <c r="T14">
-        <v>6.622939714523649E-05</v>
+        <v>0.0002943488494570691</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H15">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I15">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J15">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.382313</v>
+        <v>2.015750333333334</v>
       </c>
       <c r="N15">
-        <v>7.146939</v>
+        <v>6.047251</v>
       </c>
       <c r="O15">
-        <v>0.0289137114881257</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="P15">
-        <v>0.02891371148812569</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="Q15">
-        <v>0.4630033256543333</v>
+        <v>2.013338824017889</v>
       </c>
       <c r="R15">
-        <v>4.167029930889</v>
+        <v>18.120049416161</v>
       </c>
       <c r="S15">
-        <v>4.967337397626999E-06</v>
+        <v>2.958851523379506E-05</v>
       </c>
       <c r="T15">
-        <v>4.967337397627E-06</v>
+        <v>2.958851523379506E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H16">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I16">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J16">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.12843966666667</v>
+        <v>21.39293066666667</v>
       </c>
       <c r="N16">
-        <v>90.38531900000001</v>
+        <v>64.178792</v>
       </c>
       <c r="O16">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195203</v>
       </c>
       <c r="P16">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195202</v>
       </c>
       <c r="Q16">
-        <v>5.855472292029889</v>
+        <v>21.36733759061245</v>
       </c>
       <c r="R16">
-        <v>52.69925062826901</v>
+        <v>192.306038315512</v>
       </c>
       <c r="S16">
-        <v>6.282051312668909E-05</v>
+        <v>0.0003140195710048359</v>
       </c>
       <c r="T16">
-        <v>6.28205131266891E-05</v>
+        <v>0.0003140195710048359</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.094568</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H17">
-        <v>18.283704</v>
+        <v>3.719404</v>
       </c>
       <c r="I17">
-        <v>0.005387378065534189</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J17">
-        <v>0.005387378065534191</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.115710333333334</v>
+        <v>8.188497</v>
       </c>
       <c r="N17">
-        <v>27.347131</v>
+        <v>24.565491</v>
       </c>
       <c r="O17">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="P17">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="Q17">
-        <v>55.55631649480267</v>
+        <v>10.152109498596</v>
       </c>
       <c r="R17">
-        <v>500.006848453224</v>
+        <v>91.368985487364</v>
       </c>
       <c r="S17">
-        <v>0.0005960366876609976</v>
+        <v>0.0001491978612695218</v>
       </c>
       <c r="T17">
-        <v>0.0005960366876609977</v>
+        <v>0.0001491978612695219</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.094568</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H18">
-        <v>18.283704</v>
+        <v>3.719404</v>
       </c>
       <c r="I18">
-        <v>0.005387378065534189</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J18">
-        <v>0.005387378065534191</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.012288</v>
       </c>
       <c r="O18">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="P18">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="Q18">
-        <v>54.876075350528</v>
+        <v>11.16329022626133</v>
       </c>
       <c r="R18">
-        <v>493.884678154752</v>
+        <v>100.469612036352</v>
       </c>
       <c r="S18">
-        <v>0.0005887387114086999</v>
+        <v>0.0001640584182744961</v>
       </c>
       <c r="T18">
-        <v>0.0005887387114087001</v>
+        <v>0.0001640584182744961</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.094568</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H19">
-        <v>18.283704</v>
+        <v>3.719404</v>
       </c>
       <c r="I19">
-        <v>0.005387378065534189</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J19">
-        <v>0.005387378065534191</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>31.76332533333333</v>
+        <v>20.052841</v>
       </c>
       <c r="N19">
-        <v>95.289976</v>
+        <v>60.158523</v>
       </c>
       <c r="O19">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="P19">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="Q19">
-        <v>193.5837461501226</v>
+        <v>24.86153900892133</v>
       </c>
       <c r="R19">
-        <v>1742.253715351104</v>
+        <v>223.753851080292</v>
       </c>
       <c r="S19">
-        <v>0.002076865820489029</v>
+        <v>0.000365371201769724</v>
       </c>
       <c r="T19">
-        <v>0.002076865820489029</v>
+        <v>0.0003653712017697241</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.094568</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H20">
-        <v>18.283704</v>
+        <v>3.719404</v>
       </c>
       <c r="I20">
-        <v>0.005387378065534189</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J20">
-        <v>0.005387378065534191</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.382313</v>
+        <v>2.015750333333334</v>
       </c>
       <c r="N20">
-        <v>7.146939</v>
+        <v>6.047251</v>
       </c>
       <c r="O20">
-        <v>0.0289137114881257</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="P20">
-        <v>0.02891371148812569</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="Q20">
-        <v>14.519168575784</v>
+        <v>2.499129950933778</v>
       </c>
       <c r="R20">
-        <v>130.672517182056</v>
+        <v>22.492169558404</v>
       </c>
       <c r="S20">
-        <v>0.0001557690950643123</v>
+        <v>3.672781935276512E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001557690950643123</v>
+        <v>3.672781935276512E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.094568</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H21">
-        <v>18.283704</v>
+        <v>3.719404</v>
       </c>
       <c r="I21">
-        <v>0.005387378065534189</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J21">
-        <v>0.005387378065534191</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>30.12843966666667</v>
+        <v>21.39293066666667</v>
       </c>
       <c r="N21">
-        <v>90.38531900000001</v>
+        <v>64.178792</v>
       </c>
       <c r="O21">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195203</v>
       </c>
       <c r="P21">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195202</v>
       </c>
       <c r="Q21">
-        <v>183.6198242823973</v>
+        <v>26.52298396444089</v>
       </c>
       <c r="R21">
-        <v>1652.578418541576</v>
+        <v>238.706855679968</v>
       </c>
       <c r="S21">
-        <v>0.001969967750911151</v>
+        <v>0.0003897881994404874</v>
       </c>
       <c r="T21">
-        <v>0.001969967750911152</v>
+        <v>0.0003897881994404875</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4090393333333334</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H22">
-        <v>1.227118</v>
+        <v>2.652976</v>
       </c>
       <c r="I22">
-        <v>0.0003615760021613883</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J22">
-        <v>0.0003615760021613884</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.115710333333334</v>
+        <v>8.188497</v>
       </c>
       <c r="N22">
-        <v>27.347131</v>
+        <v>24.565491</v>
       </c>
       <c r="O22">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="P22">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="Q22">
-        <v>3.728684077606445</v>
+        <v>7.241295339024</v>
       </c>
       <c r="R22">
-        <v>33.55815669845801</v>
+        <v>65.171658051216</v>
       </c>
       <c r="S22">
-        <v>4.000323720451765E-05</v>
+        <v>0.0001064198310265223</v>
       </c>
       <c r="T22">
-        <v>4.000323720451765E-05</v>
+        <v>0.0001064198310265223</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4090393333333334</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H23">
-        <v>1.227118</v>
+        <v>2.652976</v>
       </c>
       <c r="I23">
-        <v>0.0003615760021613883</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J23">
-        <v>0.0003615760021613884</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>27.012288</v>
       </c>
       <c r="O23">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="P23">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="Q23">
-        <v>3.683029425109334</v>
+        <v>7.962550196565333</v>
       </c>
       <c r="R23">
-        <v>33.147264825984</v>
+        <v>71.662951769088</v>
       </c>
       <c r="S23">
-        <v>3.951343065203971E-05</v>
+        <v>0.0001170195671887753</v>
       </c>
       <c r="T23">
-        <v>3.951343065203972E-05</v>
+        <v>0.0001170195671887753</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4090393333333334</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H24">
-        <v>1.227118</v>
+        <v>2.652976</v>
       </c>
       <c r="I24">
-        <v>0.0003615760021613883</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J24">
-        <v>0.0003615760021613884</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>31.76332533333333</v>
+        <v>20.052841</v>
       </c>
       <c r="N24">
-        <v>95.289976</v>
+        <v>60.158523</v>
       </c>
       <c r="O24">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="P24">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="Q24">
-        <v>12.99244941879645</v>
+        <v>17.73323530160533</v>
       </c>
       <c r="R24">
-        <v>116.932044769168</v>
+        <v>159.599117714448</v>
       </c>
       <c r="S24">
-        <v>0.0001393896680840412</v>
+        <v>0.000260611923143126</v>
       </c>
       <c r="T24">
-        <v>0.0001393896680840412</v>
+        <v>0.000260611923143126</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4090393333333334</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H25">
-        <v>1.227118</v>
+        <v>2.652976</v>
       </c>
       <c r="I25">
-        <v>0.0003615760021613883</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J25">
-        <v>0.0003615760021613884</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.382313</v>
+        <v>2.015750333333334</v>
       </c>
       <c r="N25">
-        <v>7.146939</v>
+        <v>6.047251</v>
       </c>
       <c r="O25">
-        <v>0.0289137114881257</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="P25">
-        <v>0.02891371148812569</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="Q25">
-        <v>0.9744597213113334</v>
+        <v>1.782579085441778</v>
       </c>
       <c r="R25">
-        <v>8.770137491802</v>
+        <v>16.043211768976</v>
       </c>
       <c r="S25">
-        <v>1.04545042075243E-05</v>
+        <v>2.619721419754923E-05</v>
       </c>
       <c r="T25">
-        <v>1.04545042075243E-05</v>
+        <v>2.619721419754923E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4090393333333334</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H26">
-        <v>1.227118</v>
+        <v>2.652976</v>
       </c>
       <c r="I26">
-        <v>0.0003615760021613883</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J26">
-        <v>0.0003615760021613884</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>30.12843966666667</v>
+        <v>21.39293066666667</v>
       </c>
       <c r="N26">
-        <v>90.38531900000001</v>
+        <v>64.178792</v>
       </c>
       <c r="O26">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195203</v>
       </c>
       <c r="P26">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195202</v>
       </c>
       <c r="Q26">
-        <v>12.32371687562689</v>
+        <v>18.91831054277689</v>
       </c>
       <c r="R26">
-        <v>110.913451880642</v>
+        <v>170.264794884992</v>
       </c>
       <c r="S26">
-        <v>0.0001322151620132655</v>
+        <v>0.0002780280760570314</v>
       </c>
       <c r="T26">
-        <v>0.0001322151620132655</v>
+        <v>0.0002780280760570314</v>
       </c>
     </row>
   </sheetData>
